--- a/partworkquiz_two_option.xlsx
+++ b/partworkquiz_two_option.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\drpol\Python\python_codes\SubscriptionQuiz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BDC3704-27C5-48ED-A5F8-167D311601E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8018C159-5C34-426D-8202-942DCDD8CB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-75" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3713,7 +3713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3730,7 +3730,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4046,7 +4045,7 @@
   <cols>
     <col min="1" max="1" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="41.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4617,7 +4616,7 @@
       <c r="B52" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="C52" s="6" t="s">
+      <c r="C52" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4628,7 +4627,7 @@
       <c r="B53" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="C53" s="6" t="s">
+      <c r="C53" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4639,7 +4638,7 @@
       <c r="B54" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C54" s="6" t="s">
+      <c r="C54" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4650,7 +4649,7 @@
       <c r="B55" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="C55" s="6" t="s">
+      <c r="C55" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4661,7 +4660,7 @@
       <c r="B56" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="C56" s="6" t="s">
+      <c r="C56" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4672,7 +4671,7 @@
       <c r="B57" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="C57" s="6" t="s">
+      <c r="C57" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4683,7 +4682,7 @@
       <c r="B58" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="C58" s="6" t="s">
+      <c r="C58" t="s">
         <v>765</v>
       </c>
     </row>
@@ -4694,7 +4693,7 @@
       <c r="B59" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="C59" s="6" t="s">
+      <c r="C59" t="s">
         <v>765</v>
       </c>
     </row>
@@ -7543,7 +7542,7 @@
       <c r="B318" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C318" s="6" t="s">
+      <c r="C318" t="s">
         <v>765</v>
       </c>
     </row>
@@ -7554,7 +7553,7 @@
       <c r="B319" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="C319" s="6" t="s">
+      <c r="C319" t="s">
         <v>194</v>
       </c>
     </row>
@@ -7565,7 +7564,7 @@
       <c r="B320" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C320" s="6" t="s">
+      <c r="C320" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7576,7 +7575,7 @@
       <c r="B321" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C321" s="6" t="s">
+      <c r="C321" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7587,7 +7586,7 @@
       <c r="B322" t="s">
         <v>200</v>
       </c>
-      <c r="C322" s="6" t="s">
+      <c r="C322" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7598,7 +7597,7 @@
       <c r="B323" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C323" s="6" t="s">
+      <c r="C323" t="s">
         <v>203</v>
       </c>
     </row>
@@ -7609,7 +7608,7 @@
       <c r="B324" t="s">
         <v>205</v>
       </c>
-      <c r="C324" s="6" t="s">
+      <c r="C324" t="s">
         <v>204</v>
       </c>
     </row>
@@ -7620,7 +7619,7 @@
       <c r="B325" t="s">
         <v>206</v>
       </c>
-      <c r="C325" s="6" t="s">
+      <c r="C325" t="s">
         <v>207</v>
       </c>
     </row>
@@ -7631,7 +7630,7 @@
       <c r="B326" t="s">
         <v>208</v>
       </c>
-      <c r="C326" s="6" t="s">
+      <c r="C326" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7642,7 +7641,7 @@
       <c r="B327" t="s">
         <v>210</v>
       </c>
-      <c r="C327" s="6" t="s">
+      <c r="C327" t="s">
         <v>211</v>
       </c>
     </row>
@@ -7653,7 +7652,7 @@
       <c r="B328" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C328" s="6" t="s">
+      <c r="C328" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7664,7 +7663,7 @@
       <c r="B329" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="C329" s="6" t="s">
+      <c r="C329" t="s">
         <v>227</v>
       </c>
     </row>
@@ -7675,7 +7674,7 @@
       <c r="B330" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C330" s="6" t="s">
+      <c r="C330" t="s">
         <v>228</v>
       </c>
     </row>
@@ -7686,7 +7685,7 @@
       <c r="B331" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C331" s="6" t="s">
+      <c r="C331" t="s">
         <v>229</v>
       </c>
     </row>
@@ -7697,7 +7696,7 @@
       <c r="B332" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C332" s="6" t="s">
+      <c r="C332" t="s">
         <v>230</v>
       </c>
     </row>
@@ -7708,7 +7707,7 @@
       <c r="B333" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="C333" s="6" t="s">
+      <c r="C333" t="s">
         <v>231</v>
       </c>
     </row>
@@ -7719,7 +7718,7 @@
       <c r="B334" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C334" s="6" t="s">
+      <c r="C334" t="s">
         <v>232</v>
       </c>
     </row>
@@ -7730,7 +7729,7 @@
       <c r="B335" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="C335" s="6" t="s">
+      <c r="C335" t="s">
         <v>233</v>
       </c>
     </row>
@@ -7741,7 +7740,7 @@
       <c r="B336" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C336" s="6" t="s">
+      <c r="C336" t="s">
         <v>234</v>
       </c>
     </row>
@@ -7752,7 +7751,7 @@
       <c r="B337" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="C337" s="6" t="s">
+      <c r="C337" t="s">
         <v>235</v>
       </c>
     </row>
@@ -7763,7 +7762,7 @@
       <c r="B338" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="C338" s="6" t="s">
+      <c r="C338" t="s">
         <v>236</v>
       </c>
     </row>
@@ -7774,7 +7773,7 @@
       <c r="B339" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="C339" s="6" t="s">
+      <c r="C339" t="s">
         <v>237</v>
       </c>
     </row>
@@ -7785,7 +7784,7 @@
       <c r="B340" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C340" s="6" t="s">
+      <c r="C340" t="s">
         <v>238</v>
       </c>
     </row>
@@ -7796,7 +7795,7 @@
       <c r="B341" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C341" s="6" t="s">
+      <c r="C341" t="s">
         <v>241</v>
       </c>
     </row>
@@ -7807,7 +7806,7 @@
       <c r="B342" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C342" s="6" t="s">
+      <c r="C342" t="s">
         <v>240</v>
       </c>
     </row>
@@ -7818,7 +7817,7 @@
       <c r="B343" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C343" s="6" t="s">
+      <c r="C343" t="s">
         <v>239</v>
       </c>
     </row>
@@ -7829,7 +7828,7 @@
       <c r="B344" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C344" s="6" t="s">
+      <c r="C344" t="s">
         <v>242</v>
       </c>
     </row>
@@ -7840,7 +7839,7 @@
       <c r="B345" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C345" s="6" t="s">
+      <c r="C345" t="s">
         <v>243</v>
       </c>
     </row>
@@ -7851,7 +7850,7 @@
       <c r="B346" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C346" s="6" t="s">
+      <c r="C346" t="s">
         <v>244</v>
       </c>
     </row>
@@ -7862,7 +7861,7 @@
       <c r="B347" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C347" s="6" t="s">
+      <c r="C347" t="s">
         <v>245</v>
       </c>
     </row>
@@ -7873,7 +7872,7 @@
       <c r="B348" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C348" s="6" t="s">
+      <c r="C348" t="s">
         <v>246</v>
       </c>
     </row>
@@ -7884,7 +7883,7 @@
       <c r="B349" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C349" s="6" t="s">
+      <c r="C349" t="s">
         <v>247</v>
       </c>
     </row>
@@ -7895,7 +7894,7 @@
       <c r="B350" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C350" s="6" t="s">
+      <c r="C350" t="s">
         <v>248</v>
       </c>
     </row>
@@ -7906,7 +7905,7 @@
       <c r="B351" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C351" s="6" t="s">
+      <c r="C351" t="s">
         <v>249</v>
       </c>
     </row>
@@ -7917,7 +7916,7 @@
       <c r="B352" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C352" s="6" t="s">
+      <c r="C352" t="s">
         <v>250</v>
       </c>
     </row>
@@ -7928,7 +7927,7 @@
       <c r="B353" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C353" s="6" t="s">
+      <c r="C353" t="s">
         <v>268</v>
       </c>
     </row>
@@ -7939,7 +7938,7 @@
       <c r="B354" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C354" s="6" t="s">
+      <c r="C354" t="s">
         <v>251</v>
       </c>
     </row>
@@ -7950,7 +7949,7 @@
       <c r="B355" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C355" s="6" t="s">
+      <c r="C355" t="s">
         <v>269</v>
       </c>
     </row>
@@ -7961,7 +7960,7 @@
       <c r="B356" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C356" s="6" t="s">
+      <c r="C356" t="s">
         <v>252</v>
       </c>
     </row>
@@ -7972,7 +7971,7 @@
       <c r="B357" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C357" s="6" t="s">
+      <c r="C357" t="s">
         <v>253</v>
       </c>
     </row>
@@ -7983,7 +7982,7 @@
       <c r="B358" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C358" s="6" t="s">
+      <c r="C358" t="s">
         <v>254</v>
       </c>
     </row>
@@ -7994,7 +7993,7 @@
       <c r="B359" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C359" s="6" t="s">
+      <c r="C359" t="s">
         <v>255</v>
       </c>
     </row>
@@ -8005,7 +8004,7 @@
       <c r="B360" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C360" s="6" t="s">
+      <c r="C360" t="s">
         <v>256</v>
       </c>
     </row>
@@ -8016,7 +8015,7 @@
       <c r="B361" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C361" s="6" t="s">
+      <c r="C361" t="s">
         <v>257</v>
       </c>
     </row>
@@ -8027,7 +8026,7 @@
       <c r="B362" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C362" s="6" t="s">
+      <c r="C362" t="s">
         <v>258</v>
       </c>
     </row>
@@ -8038,7 +8037,7 @@
       <c r="B363" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="C363" s="6" t="s">
+      <c r="C363" t="s">
         <v>259</v>
       </c>
     </row>
@@ -8049,7 +8048,7 @@
       <c r="B364" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="C364" s="6" t="s">
+      <c r="C364" t="s">
         <v>270</v>
       </c>
     </row>
@@ -8060,7 +8059,7 @@
       <c r="B365" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C365" s="6" t="s">
+      <c r="C365" t="s">
         <v>271</v>
       </c>
     </row>
@@ -8071,7 +8070,7 @@
       <c r="B366" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="C366" s="6" t="s">
+      <c r="C366" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8082,7 +8081,7 @@
       <c r="B367" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C367" s="6" t="s">
+      <c r="C367" t="s">
         <v>261</v>
       </c>
     </row>
@@ -8093,7 +8092,7 @@
       <c r="B368" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C368" s="6" t="s">
+      <c r="C368" t="s">
         <v>272</v>
       </c>
     </row>
@@ -8104,7 +8103,7 @@
       <c r="B369" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C369" s="6" t="s">
+      <c r="C369" t="s">
         <v>262</v>
       </c>
     </row>
@@ -8115,7 +8114,7 @@
       <c r="B370" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C370" s="6" t="s">
+      <c r="C370" t="s">
         <v>263</v>
       </c>
     </row>
@@ -8126,7 +8125,7 @@
       <c r="B371" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C371" s="6" t="s">
+      <c r="C371" t="s">
         <v>264</v>
       </c>
     </row>
@@ -8137,7 +8136,7 @@
       <c r="B372" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C372" s="6" t="s">
+      <c r="C372" t="s">
         <v>265</v>
       </c>
     </row>
@@ -8148,7 +8147,7 @@
       <c r="B373" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C373" s="6" t="s">
+      <c r="C373" t="s">
         <v>273</v>
       </c>
     </row>
@@ -8159,7 +8158,7 @@
       <c r="B374" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C374" s="6" t="s">
+      <c r="C374" t="s">
         <v>266</v>
       </c>
     </row>
@@ -8170,7 +8169,7 @@
       <c r="B375" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C375" s="6" t="s">
+      <c r="C375" t="s">
         <v>267</v>
       </c>
     </row>
@@ -8181,7 +8180,7 @@
       <c r="B376" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="C376" s="6" t="s">
+      <c r="C376" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8192,7 +8191,7 @@
       <c r="B377" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C377" s="6" t="s">
+      <c r="C377" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8203,7 +8202,7 @@
       <c r="B378" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C378" s="6" t="s">
+      <c r="C378" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8214,7 +8213,7 @@
       <c r="B379" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C379" s="6" t="s">
+      <c r="C379" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8225,7 +8224,7 @@
       <c r="B380" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C380" s="6" t="s">
+      <c r="C380" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8236,7 +8235,7 @@
       <c r="B381" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C381" s="6" t="s">
+      <c r="C381" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8247,7 +8246,7 @@
       <c r="B382" s="3" t="s">
         <v>142</v>
       </c>
-      <c r="C382" s="6" t="s">
+      <c r="C382" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8258,7 +8257,7 @@
       <c r="B383" s="3" t="s">
         <v>143</v>
       </c>
-      <c r="C383" s="6" t="s">
+      <c r="C383" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8269,7 +8268,7 @@
       <c r="B384" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C384" s="6" t="s">
+      <c r="C384" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8280,7 +8279,7 @@
       <c r="B385" s="3" t="s">
         <v>145</v>
       </c>
-      <c r="C385" s="6" t="s">
+      <c r="C385" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8291,7 +8290,7 @@
       <c r="B386" s="3" t="s">
         <v>146</v>
       </c>
-      <c r="C386" s="6" t="s">
+      <c r="C386" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8302,7 +8301,7 @@
       <c r="B387" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C387" s="6" t="s">
+      <c r="C387" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8313,7 +8312,7 @@
       <c r="B388" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="C388" s="6" t="s">
+      <c r="C388" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8324,7 +8323,7 @@
       <c r="B389" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C389" s="6" t="s">
+      <c r="C389" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8335,7 +8334,7 @@
       <c r="B390" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C390" s="6" t="s">
+      <c r="C390" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8346,7 +8345,7 @@
       <c r="B391" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C391" s="6" t="s">
+      <c r="C391" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8357,7 +8356,7 @@
       <c r="B392" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="C392" s="6" t="s">
+      <c r="C392" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8368,7 +8367,7 @@
       <c r="B393" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C393" s="6" t="s">
+      <c r="C393" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8379,7 +8378,7 @@
       <c r="B394" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C394" s="6" t="s">
+      <c r="C394" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8390,7 +8389,7 @@
       <c r="B395" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C395" s="6" t="s">
+      <c r="C395" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8401,7 +8400,7 @@
       <c r="B396" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C396" s="6" t="s">
+      <c r="C396" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8412,7 +8411,7 @@
       <c r="B397" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="C397" s="6" t="s">
+      <c r="C397" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8423,7 +8422,7 @@
       <c r="B398" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C398" s="6" t="s">
+      <c r="C398" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8434,7 +8433,7 @@
       <c r="B399" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="C399" s="6" t="s">
+      <c r="C399" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8445,7 +8444,7 @@
       <c r="B400" s="3" t="s">
         <v>160</v>
       </c>
-      <c r="C400" s="6" t="s">
+      <c r="C400" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8456,7 +8455,7 @@
       <c r="B401" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="C401" s="6" t="s">
+      <c r="C401" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8467,7 +8466,7 @@
       <c r="B402" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C402" s="6" t="s">
+      <c r="C402" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8478,7 +8477,7 @@
       <c r="B403" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C403" s="6" t="s">
+      <c r="C403" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8489,7 +8488,7 @@
       <c r="B404" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C404" s="6" t="s">
+      <c r="C404" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8500,7 +8499,7 @@
       <c r="B405" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C405" s="6" t="s">
+      <c r="C405" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8511,7 +8510,7 @@
       <c r="B406" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="C406" s="6" t="s">
+      <c r="C406" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8522,7 +8521,7 @@
       <c r="B407" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="C407" s="6" t="s">
+      <c r="C407" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8533,7 +8532,7 @@
       <c r="B408" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="C408" s="6" t="s">
+      <c r="C408" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8544,7 +8543,7 @@
       <c r="B409" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="C409" s="6" t="s">
+      <c r="C409" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8555,7 +8554,7 @@
       <c r="B410" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="C410" s="6" t="s">
+      <c r="C410" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8566,7 +8565,7 @@
       <c r="B411" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C411" s="6" t="s">
+      <c r="C411" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8577,7 +8576,7 @@
       <c r="B412" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="C412" s="6" t="s">
+      <c r="C412" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8588,7 +8587,7 @@
       <c r="B413" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="C413" s="6" t="s">
+      <c r="C413" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8599,7 +8598,7 @@
       <c r="B414" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="C414" s="6" t="s">
+      <c r="C414" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8610,7 +8609,7 @@
       <c r="B415" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="C415" s="6" t="s">
+      <c r="C415" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8621,7 +8620,7 @@
       <c r="B416" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="C416" s="6" t="s">
+      <c r="C416" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8632,7 +8631,7 @@
       <c r="B417" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="C417" s="6" t="s">
+      <c r="C417" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8643,7 +8642,7 @@
       <c r="B418" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="C418" s="6" t="s">
+      <c r="C418" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8654,7 +8653,7 @@
       <c r="B419" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="C419" s="6" t="s">
+      <c r="C419" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8665,7 +8664,7 @@
       <c r="B420" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C420" s="6" t="s">
+      <c r="C420" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8676,7 +8675,7 @@
       <c r="B421" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="C421" s="6" t="s">
+      <c r="C421" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8687,7 +8686,7 @@
       <c r="B422" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C422" s="6" t="s">
+      <c r="C422" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8698,7 +8697,7 @@
       <c r="B423" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C423" s="6" t="s">
+      <c r="C423" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8709,7 +8708,7 @@
       <c r="B424" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C424" s="6" t="s">
+      <c r="C424" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8720,7 +8719,7 @@
       <c r="B425" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C425" s="6" t="s">
+      <c r="C425" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8731,7 +8730,7 @@
       <c r="B426" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C426" s="6" t="s">
+      <c r="C426" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8742,7 +8741,7 @@
       <c r="B427" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C427" s="6" t="s">
+      <c r="C427" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8753,7 +8752,7 @@
       <c r="B428" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C428" s="6" t="s">
+      <c r="C428" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8764,7 +8763,7 @@
       <c r="B429" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C429" s="6" t="s">
+      <c r="C429" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8775,7 +8774,7 @@
       <c r="B430" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C430" s="6" t="s">
+      <c r="C430" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8786,7 +8785,7 @@
       <c r="B431" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C431" s="6" t="s">
+      <c r="C431" t="s">
         <v>765</v>
       </c>
     </row>
@@ -8797,7 +8796,7 @@
       <c r="B432" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="C432" s="6" t="s">
+      <c r="C432" t="s">
         <v>765</v>
       </c>
     </row>
